--- a/public/templates/主数据-豁免条款-批导模板.xlsx
+++ b/public/templates/主数据-豁免条款-批导模板.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>id</t>
   </si>
@@ -68,42 +68,6 @@
   </si>
   <si>
     <t>排序号</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>手动阀手动阀</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>2020-09-08</t>
-  </si>
-  <si>
-    <t>1111</t>
-  </si>
-  <si>
-    <t>344</t>
-  </si>
-  <si>
-    <t>手动阀手ss动阀</t>
-  </si>
-  <si>
-    <t>345</t>
-  </si>
-  <si>
-    <t>手动阀s手动阀</t>
-  </si>
-  <si>
-    <t>346</t>
-  </si>
-  <si>
-    <t>手动s阀手动阀</t>
   </si>
 </sst>
 </file>
@@ -111,19 +75,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -140,15 +97,60 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -156,29 +158,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -192,55 +187,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -254,6 +202,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -261,33 +233,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -306,18 +256,102 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -330,163 +364,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -515,13 +465,50 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -531,15 +518,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -574,41 +552,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -618,10 +568,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -630,146 +580,146 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -778,14 +728,8 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1135,22 +1079,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="28.625" customWidth="1"/>
     <col min="2" max="2" width="9" style="2" customWidth="1"/>
-    <col min="3" max="3" width="12.875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12" style="2" customWidth="1"/>
+    <col min="3" max="3" width="14.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="17.375" style="2" customWidth="1"/>
     <col min="5" max="5" width="12.25" style="2" customWidth="1"/>
     <col min="6" max="6" width="13.375" style="2" customWidth="1"/>
     <col min="7" max="7" width="22.875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="8.5" style="2" customWidth="1"/>
+    <col min="8" max="8" width="21.5" style="2" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -1193,121 +1137,26 @@
       <c r="D2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="7" t="s">
         <v>15</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" ht="18" customHeight="1" spans="1:9">
-      <c r="A3" s="9"/>
-      <c r="C3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
-      <c r="A4" s="9"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
-      <c r="A5" s="9"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
-      <c r="A6" s="9"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
+    <row r="3" ht="18" customHeight="1"/>
+    <row r="4" ht="18" customHeight="1"/>
+    <row r="5" ht="18" customHeight="1"/>
+    <row r="6" ht="18" customHeight="1"/>
     <row r="7" ht="18" customHeight="1"/>
     <row r="8" ht="18" customHeight="1"/>
     <row r="9" ht="18" customHeight="1"/>
@@ -1327,10 +1176,6 @@
     <row r="23" ht="18" customHeight="1"/>
     <row r="24" ht="18" customHeight="1"/>
     <row r="25" ht="18" customHeight="1"/>
-    <row r="26" ht="18" customHeight="1"/>
-    <row r="27" ht="18" customHeight="1"/>
-    <row r="28" ht="18" customHeight="1"/>
-    <row r="29" ht="18" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/public/templates/主数据-豁免条款-批导模板.xlsx
+++ b/public/templates/主数据-豁免条款-批导模板.xlsx
@@ -104,16 +104,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -135,45 +142,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -187,10 +163,27 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -210,8 +203,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -219,23 +228,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -256,187 +256,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -461,6 +461,15 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -489,11 +498,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -509,30 +524,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -554,6 +545,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -568,10 +568,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -580,137 +580,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -726,6 +726,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1082,7 +1085,7 @@
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1137,16 +1140,16 @@
       <c r="D2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="8" t="s">
         <v>15</v>
       </c>
       <c r="I2" s="5" t="s">

--- a/public/templates/主数据-豁免条款-批导模板.xlsx
+++ b/public/templates/主数据-豁免条款-批导模板.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>id</t>
   </si>
@@ -31,6 +31,9 @@
   </si>
   <si>
     <t>limitNumber</t>
+  </si>
+  <si>
+    <t>limitNumberMaxSign</t>
   </si>
   <si>
     <t>exemptionExpireDate</t>
@@ -59,6 +62,11 @@
   </si>
   <si>
     <t>限量</t>
+  </si>
+  <si>
+    <t>比较标识
+(true-最大值)
+(false-最小值))</t>
   </si>
   <si>
     <t>豁免到期日期</t>
@@ -75,10 +83,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -98,14 +106,83 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -118,9 +195,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -134,46 +217,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -194,52 +248,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -256,49 +264,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -310,133 +444,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -465,11 +473,52 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -489,15 +538,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -513,32 +553,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -551,166 +570,155 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -730,6 +738,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1082,10 +1093,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1094,14 +1105,14 @@
     <col min="2" max="2" width="9" style="2" customWidth="1"/>
     <col min="3" max="3" width="14.5" style="2" customWidth="1"/>
     <col min="4" max="4" width="17.375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="12.25" style="2" customWidth="1"/>
-    <col min="6" max="6" width="13.375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="22.875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="21.5" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="2"/>
+    <col min="5" max="6" width="12.25" style="2" customWidth="1"/>
+    <col min="7" max="7" width="17" style="2" customWidth="1"/>
+    <col min="8" max="8" width="22.875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="21.5" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="38" hidden="1" customHeight="1" spans="2:9">
+    <row r="1" s="1" customFormat="1" ht="1" hidden="1" customHeight="1" spans="2:10">
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1123,37 +1134,43 @@
       <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" ht="52.5" customHeight="1" spans="1:9">
+    <row r="2" ht="52.5" customHeight="1" spans="1:10">
       <c r="A2" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="8" t="s">
         <v>13</v>
       </c>
+      <c r="F2" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="G2" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="H2" s="9" t="s">
         <v>16</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1"/>

--- a/public/templates/主数据-豁免条款-批导模板.xlsx
+++ b/public/templates/主数据-豁免条款-批导模板.xlsx
@@ -61,7 +61,7 @@
     <t>CAS.NO</t>
   </si>
   <si>
-    <t>限量</t>
+    <t>限量(%)</t>
   </si>
   <si>
     <t>比较标识
@@ -84,9 +84,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -105,6 +105,91 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -113,29 +198,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -143,7 +205,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -157,17 +219,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -175,28 +229,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -208,48 +248,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -264,187 +264,193 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -469,45 +475,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -556,8 +523,47 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -576,10 +582,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -588,137 +594,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -743,6 +749,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1096,7 +1105,7 @@
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1169,7 +1178,7 @@
       <c r="I2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="10" t="s">
         <v>18</v>
       </c>
     </row>

--- a/public/templates/主数据-豁免条款-批导模板.xlsx
+++ b/public/templates/主数据-豁免条款-批导模板.xlsx
@@ -105,6 +105,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -113,6 +151,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -123,9 +183,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -137,75 +197,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -219,31 +220,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -270,37 +270,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -312,145 +408,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -479,13 +479,56 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -505,41 +548,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -552,40 +576,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -594,133 +594,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1105,7 +1105,7 @@
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/public/templates/主数据-豁免条款-批导模板.xlsx
+++ b/public/templates/主数据-豁免条款-批导模板.xlsx
@@ -105,6 +105,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -113,7 +136,90 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -127,14 +233,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -144,106 +242,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -270,25 +270,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -300,157 +402,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -479,6 +479,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -498,22 +537,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -533,30 +566,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -567,25 +576,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -594,19 +594,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -615,112 +615,112 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1105,7 +1105,7 @@
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1206,6 +1206,11 @@
     <row r="24" ht="18" customHeight="1"/>
     <row r="25" ht="18" customHeight="1"/>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G$1:G$1048576">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/public/templates/主数据-豁免条款-批导模板.xlsx
+++ b/public/templates/主数据-豁免条款-批导模板.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>id</t>
   </si>
@@ -28,6 +28,9 @@
   </si>
   <si>
     <t>casNo</t>
+  </si>
+  <si>
+    <t>ppmValue</t>
   </si>
   <si>
     <t>limitNumber</t>
@@ -59,6 +62,9 @@
   </si>
   <si>
     <t>CAS.NO</t>
+  </si>
+  <si>
+    <t>ppm</t>
   </si>
   <si>
     <t>限量(%)</t>
@@ -105,11 +111,132 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -122,128 +249,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -270,187 +276,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -479,32 +485,31 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -533,20 +538,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -565,27 +582,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -594,133 +600,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1102,7 +1108,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
@@ -1114,14 +1120,14 @@
     <col min="2" max="2" width="9" style="2" customWidth="1"/>
     <col min="3" max="3" width="14.5" style="2" customWidth="1"/>
     <col min="4" max="4" width="17.375" style="2" customWidth="1"/>
-    <col min="5" max="6" width="12.25" style="2" customWidth="1"/>
-    <col min="7" max="7" width="17" style="2" customWidth="1"/>
-    <col min="8" max="8" width="22.875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="21.5" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="2"/>
+    <col min="5" max="7" width="12.25" style="2" customWidth="1"/>
+    <col min="8" max="8" width="17" style="2" customWidth="1"/>
+    <col min="9" max="9" width="22.875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="21.5" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="1" hidden="1" customHeight="1" spans="2:10">
+    <row r="1" s="1" customFormat="1" ht="27" hidden="1" customHeight="1" spans="2:11">
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1146,40 +1152,46 @@
       <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" ht="52.5" customHeight="1" spans="1:10">
+    <row r="2" ht="52.5" customHeight="1" spans="1:11">
       <c r="A2" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="G2" s="7" t="s">
         <v>16</v>
       </c>
+      <c r="H2" s="8" t="s">
+        <v>17</v>
+      </c>
       <c r="I2" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="10" t="s">
         <v>18</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1"/>
@@ -1207,7 +1219,7 @@
     <row r="25" ht="18" customHeight="1"/>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G$1:G$1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H$1:H$1048576">
       <formula1>"true,false"</formula1>
     </dataValidation>
   </dataValidations>
